--- a/ScoreBoard.xlsx
+++ b/ScoreBoard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_code\verilog_and_systemverilog\ALU_32bit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABA5E88-B05D-480A-98DA-8FCFF669B050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84FEB66-78AC-45F4-B0B8-20DF251D7E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85341304-CAE7-440C-9E00-4B9CC2DEDFB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="92">
   <si>
     <t>STT</t>
   </si>
@@ -159,6 +159,159 @@
   </si>
   <si>
     <t>Proof</t>
+  </si>
+  <si>
+    <t>0000 0000 0000 0000 0000 0000 0000 0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXX XXXX XXXX XXXX XXXX XXXX XXXX XXXX </t>
+  </si>
+  <si>
+    <t>Carry Out</t>
+  </si>
+  <si>
+    <t>0111 1111 1111 1111 1111 1111 1111 1111</t>
+  </si>
+  <si>
+    <t>0000 0000 0000 0000 0000 0000 0000 0001</t>
+  </si>
+  <si>
+    <t>1000 0000 0000 0000 0000 0000 0000 0000</t>
+  </si>
+  <si>
+    <t>1000 0000 0000 0000 0000 0000 0000 0001</t>
+  </si>
+  <si>
+    <t>1111 1111 1111 1111 1111 1111 1111 1111</t>
+  </si>
+  <si>
+    <t>2^31 -1</t>
+  </si>
+  <si>
+    <t>Zero Expected</t>
+  </si>
+  <si>
+    <t>Zero Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overflow </t>
+  </si>
+  <si>
+    <t>Overflow Test</t>
+  </si>
+  <si>
+    <t>Carry Out Test</t>
+  </si>
+  <si>
+    <t>-2^31</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>0000 0000 0000 0000 0000 0000 0110 0100</t>
+  </si>
+  <si>
+    <t>1111 1111 1111 1111 1111 1111 1001 1011</t>
+  </si>
+  <si>
+    <t>1111 1111 1111 1111 1111 1111 1001 1100</t>
+  </si>
+  <si>
+    <t>000 0000 0000 0000 0000 0000 0000 0000</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0000 0000 0000 0000 0000 0000 0001 1110</t>
+  </si>
+  <si>
+    <t>0000 0000 0000 0000 0000 0000 0001 0100</t>
+  </si>
+  <si>
+    <t>0000 0000 0000 0000 0000 0000 0000 1010</t>
+  </si>
+  <si>
+    <t>1111 1111 1111 1111 1111 1111 1110 0001</t>
+  </si>
+  <si>
+    <t>1111 1111 1111 1111 1111 1111 1110 0010</t>
+  </si>
+  <si>
+    <t>1111 1111 1111 1111 1111 1111 1110 1100</t>
+  </si>
+  <si>
+    <t>0000 0000 0000 0000 0000 0000 0011 0010</t>
+  </si>
+  <si>
+    <t>0000 0000 0000 0000 0000 0010 0101 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000 0000 0000 0000 0000 0000 0000 1010 </t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>0000 0000 0000 0000 0000 0000 0000 1100</t>
+  </si>
+  <si>
+    <t>1111 1111 1111 1111 1111 1111 1111 1110</t>
+  </si>
+  <si>
+    <t>1111 1111 1111 1111 1111 1111 1111 0010</t>
+  </si>
+  <si>
+    <t>1111 1111 1111 1111 1111 1101 1010 1000</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>1111 1111 1111 1111 1111 1111 1111 0110</t>
+  </si>
+  <si>
+    <t>0000 0000 0000 0000 0000 0000 0001 1101</t>
+  </si>
+  <si>
+    <t>1111 1111 1111 1111 1111 1111 1100 1110</t>
+  </si>
+  <si>
+    <t>1111 1111 1111 1111 1111 1111 1110 1110</t>
+  </si>
+  <si>
+    <t>0000 0000 0000 0000 0000 0000 0000 1110</t>
+  </si>
+  <si>
+    <t>00000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxxxxxxxxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>00000000000000000000000000000001</t>
+  </si>
+  <si>
+    <t>01111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>01111111111111111111111111111110</t>
+  </si>
+  <si>
+    <t>10000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000000000000001</t>
   </si>
 </sst>
 </file>
@@ -185,15 +338,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -216,11 +375,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -229,10 +443,58 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -250,6 +512,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>138547</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>434018</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>193964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0179F4D8-D49D-5BD2-9090-D15094FB3189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="132324765" y="706582"/>
+          <a:ext cx="1237580" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -569,769 +880,2214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F219C246-CF83-4C53-871F-7F4FA27B0BCB}">
-  <dimension ref="A1:AM146"/>
+  <dimension ref="A1:BS146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="48.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-    <col min="5" max="5" width="47.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="11.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="13.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="13.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="1"/>
-    <col min="17" max="17" width="13.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="1"/>
-    <col min="20" max="20" width="13.77734375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" style="1"/>
-    <col min="23" max="23" width="15.5546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="13.77734375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="1"/>
-    <col min="26" max="26" width="13.109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.88671875" style="1"/>
-    <col min="29" max="29" width="15" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.88671875" style="1"/>
-    <col min="32" max="32" width="13.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.88671875" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.88671875" style="1"/>
-    <col min="35" max="35" width="19.6640625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="14.33203125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="11.77734375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="15.109375" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="8.88671875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="9"/>
+    <col min="5" max="5" width="54" style="16" customWidth="1"/>
+    <col min="6" max="6" width="54.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="51.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="22" customWidth="1"/>
+    <col min="9" max="9" width="54.44140625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="50.44140625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14" style="23" customWidth="1"/>
+    <col min="12" max="12" width="54.44140625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="49.88671875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="23" customWidth="1"/>
+    <col min="15" max="15" width="54.21875" style="14" customWidth="1"/>
+    <col min="16" max="16" width="50.109375" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="23" customWidth="1"/>
+    <col min="18" max="18" width="53.5546875" style="14" customWidth="1"/>
+    <col min="19" max="19" width="47.6640625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="13.77734375" style="23" customWidth="1"/>
+    <col min="21" max="21" width="54.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="52.5546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5546875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="57.88671875" style="14" customWidth="1"/>
+    <col min="25" max="25" width="60.21875" style="7" customWidth="1"/>
+    <col min="26" max="31" width="17.44140625" style="7" customWidth="1"/>
+    <col min="32" max="32" width="25.5546875" style="21" customWidth="1"/>
+    <col min="33" max="33" width="55.109375" style="14" customWidth="1"/>
+    <col min="34" max="34" width="48.33203125" style="7" customWidth="1"/>
+    <col min="35" max="35" width="16.33203125" style="7" customWidth="1"/>
+    <col min="36" max="36" width="16.77734375" style="7" customWidth="1"/>
+    <col min="37" max="37" width="15.109375" style="7" customWidth="1"/>
+    <col min="38" max="38" width="18.5546875" style="7" customWidth="1"/>
+    <col min="39" max="39" width="16" style="7" customWidth="1"/>
+    <col min="40" max="40" width="21.88671875" style="7" customWidth="1"/>
+    <col min="41" max="41" width="15" style="16" customWidth="1"/>
+    <col min="42" max="42" width="51.109375" style="14" customWidth="1"/>
+    <col min="43" max="43" width="48.6640625" style="7" customWidth="1"/>
+    <col min="44" max="44" width="20.33203125" style="7" customWidth="1"/>
+    <col min="45" max="45" width="16" style="7" customWidth="1"/>
+    <col min="46" max="46" width="17.77734375" style="7" customWidth="1"/>
+    <col min="47" max="47" width="17.44140625" style="7" customWidth="1"/>
+    <col min="48" max="48" width="14.5546875" style="7" customWidth="1"/>
+    <col min="49" max="49" width="18.109375" style="7" customWidth="1"/>
+    <col min="50" max="50" width="13.109375" style="16" customWidth="1"/>
+    <col min="51" max="51" width="62.6640625" style="14" customWidth="1"/>
+    <col min="52" max="52" width="41.109375" style="7" customWidth="1"/>
+    <col min="53" max="53" width="16.33203125" style="7" customWidth="1"/>
+    <col min="54" max="54" width="43.5546875" style="7" customWidth="1"/>
+    <col min="55" max="55" width="17.44140625" style="7" customWidth="1"/>
+    <col min="56" max="56" width="18.44140625" style="7" customWidth="1"/>
+    <col min="57" max="57" width="17.44140625" style="7" customWidth="1"/>
+    <col min="58" max="58" width="19.44140625" style="7" customWidth="1"/>
+    <col min="59" max="59" width="29.77734375" style="16" customWidth="1"/>
+    <col min="60" max="60" width="59.109375" style="14" customWidth="1"/>
+    <col min="61" max="61" width="52.77734375" style="7" customWidth="1"/>
+    <col min="62" max="62" width="15.109375" style="16" customWidth="1"/>
+    <col min="63" max="63" width="13.77734375" style="1" customWidth="1"/>
+    <col min="64" max="64" width="8.88671875" style="1"/>
+    <col min="65" max="65" width="14" style="1" customWidth="1"/>
+    <col min="66" max="66" width="13.21875" style="1" customWidth="1"/>
+    <col min="67" max="67" width="8.88671875" style="1"/>
+    <col min="68" max="68" width="13.33203125" style="1" customWidth="1"/>
+    <col min="69" max="69" width="15.109375" style="1" customWidth="1"/>
+    <col min="70" max="70" width="8.88671875" style="1"/>
+    <col min="71" max="71" width="11.5546875" style="1" customWidth="1"/>
+    <col min="72" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="19"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+    </row>
+    <row r="2" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A2" s="10"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3" t="s">
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3" t="s">
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3" t="s">
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3" t="s">
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3" t="s">
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="13"/>
+      <c r="BH2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
+      <c r="BI2" s="5"/>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
+    </row>
+    <row r="3" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AG3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AH3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AI3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AP3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AR3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AY3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="BA3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="BH3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="BI3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="BK3" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="8"/>
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="8"/>
+      <c r="BR3" s="8"/>
+      <c r="BS3" s="8"/>
+    </row>
+    <row r="4" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="F4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="22" t="str">
+        <f t="shared" ref="H4:H12" si="0">IF((F4 = G4), "T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="21" t="str">
+        <f>IF((I4 = J4), "T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="21" t="str">
+        <f>IF((L4 = M4), "T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="21" t="str">
+        <f>IF((O4 = P4), "T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" s="21" t="str">
+        <f>IF((R4 = S4), "T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" s="21" t="str">
+        <f>IF((U4 = V4), "T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF4" s="21" t="str">
+        <f>IF(AND(Y4 = X4, Z4 = AA4,  AB4 =AC4, AD4 = AE4), "T", "F")</f>
+        <v>T</v>
+      </c>
+      <c r="AG4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO4" s="21" t="str">
+        <f>IF(AND(AH4 = AG4, AI4 = AJ4,  AK4 =AL4, AM4 = AN4), "T", "F")</f>
+        <v>T</v>
+      </c>
+      <c r="AP4" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX4" s="21" t="str">
+        <f>IF(AND(AQ4 = AP4, AR4 = AS4,  AT4 =AU4, AV4 = AW4), "T", "F")</f>
+        <v>T</v>
+      </c>
+      <c r="AY4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG4" s="21" t="str">
+        <f>IF(AND(AZ4 = AY4, BA4 = BB4,  BC4 =BD4, BE4 = BF4), "T", "F")</f>
+        <v>T</v>
+      </c>
+      <c r="BH4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ4" s="21" t="str">
+        <f>IF((BH4 = BI4), "T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="BK4" s="7"/>
+      <c r="BL4" s="7"/>
+      <c r="BM4" s="7"/>
+      <c r="BN4" s="7"/>
+      <c r="BO4" s="7"/>
+      <c r="BP4" s="7"/>
+      <c r="BQ4" s="7"/>
+      <c r="BR4" s="7"/>
+      <c r="BS4" s="7"/>
+    </row>
+    <row r="5" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="21" t="str">
+        <f t="shared" ref="K5:K12" si="1">IF((I5 = J5), "T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="21" t="str">
+        <f t="shared" ref="N5:N12" si="2">IF((L5 = M5), "T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="21" t="str">
+        <f t="shared" ref="Q5:Q12" si="3">IF((O5 = P5), "T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" s="21" t="str">
+        <f t="shared" ref="T5:T12" si="4">IF((R5 = S5), "T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W5" s="21" t="str">
+        <f t="shared" ref="W5:W12" si="5">IF((U5 = V5), "T","F")</f>
+        <v>T</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF5" s="21" t="str">
+        <f t="shared" ref="AF5:AF12" si="6">IF(AND(Y5 = X5, Z5 = AA5,  AB5 =AC5, AD5 = AE5), "T", "F")</f>
+        <v>T</v>
+      </c>
+      <c r="AG5" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO5" s="21" t="str">
+        <f t="shared" ref="AO5:AO12" si="7">IF(AND(AH5 = AG5, AI5 = AJ5,  AK5 =AL5, AM5 = AN5), "T", "F")</f>
+        <v>T</v>
+      </c>
+      <c r="AP5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX5" s="21" t="str">
+        <f t="shared" ref="AX5:AX12" si="8">IF(AND(AQ5 = AP5, AR5 = AS5,  AT5 =AU5, AV5 = AW5), "T", "F")</f>
+        <v>T</v>
+      </c>
+      <c r="AY5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG5" s="21" t="str">
+        <f t="shared" ref="BG5:BG12" si="9">IF(AND(AZ5 = AY5, BA5 = BB5,  BC5 =BD5, BE5 = BF5), "T", "F")</f>
+        <v>F</v>
+      </c>
+      <c r="BH5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ5" s="21" t="str">
+        <f t="shared" ref="BJ5:BJ12" si="10">IF((BH5 = BI5), "T","F")</f>
+        <v>F</v>
+      </c>
+      <c r="BK5" s="7"/>
+      <c r="BL5" s="7"/>
+      <c r="BM5" s="7"/>
+      <c r="BN5" s="7"/>
+      <c r="BO5" s="7"/>
+      <c r="BP5" s="7"/>
+      <c r="BQ5" s="7"/>
+      <c r="BR5" s="7"/>
+      <c r="BS5" s="7"/>
+    </row>
+    <row r="6" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF6" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO6" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="AP6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX6" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>F</v>
+      </c>
+      <c r="AY6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG6" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>F</v>
+      </c>
+      <c r="BH6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ6" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>F</v>
+      </c>
+      <c r="BK6" s="7"/>
+      <c r="BL6" s="7"/>
+      <c r="BM6" s="7"/>
+      <c r="BN6" s="7"/>
+      <c r="BO6" s="7"/>
+      <c r="BP6" s="7"/>
+      <c r="BQ6" s="7"/>
+      <c r="BR6" s="7"/>
+      <c r="BS6" s="7"/>
+    </row>
+    <row r="7" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF7" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="AG7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO7" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="AP7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX7" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>F</v>
+      </c>
+      <c r="AY7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG7" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>F</v>
+      </c>
+      <c r="BH7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ7" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF8" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="AG8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO8" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="AP8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX8" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>F</v>
+      </c>
+      <c r="AY8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG8" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>F</v>
+      </c>
+      <c r="BH8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ8" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="9" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="B9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W9" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF9" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="AG9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO9" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="AP9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX9" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>F</v>
+      </c>
+      <c r="AY9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG9" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>F</v>
+      </c>
+      <c r="BH9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ9" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W10" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF10" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="AG10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO10" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="AP10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX10" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>F</v>
+      </c>
+      <c r="AY10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG10" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>F</v>
+      </c>
+      <c r="BH10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BJ10" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W11" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="X11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF11" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="AG11" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO11" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="AP11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX11" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>F</v>
+      </c>
+      <c r="AY11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG11" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>F</v>
+      </c>
+      <c r="BH11" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ11" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>F</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="21" t="str">
+        <f t="shared" si="2"/>
+        <v>F</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF12" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="AG12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO12" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="AP12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX12" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v>F</v>
+      </c>
+      <c r="AY12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG12" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>F</v>
+      </c>
+      <c r="BH12" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ12" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="Q13" s="21"/>
+    </row>
+    <row r="14" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
+      <c r="A26" s="4"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
+      <c r="A28" s="4"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
+      <c r="A31" s="4"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
+      <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
+      <c r="A34" s="4"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
+      <c r="A35" s="4"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
+      <c r="A36" s="4"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
+      <c r="A37" s="4"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
+      <c r="A38" s="4"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
+      <c r="A39" s="4"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
+      <c r="A40" s="4"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
+      <c r="A41" s="4"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
+      <c r="A42" s="4"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
+      <c r="A43" s="4"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
+      <c r="A44" s="4"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
+      <c r="A45" s="4"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
+      <c r="A46" s="4"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5"/>
+      <c r="A47" s="4"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
+      <c r="A48" s="4"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
+      <c r="A49" s="4"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
+      <c r="A50" s="4"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
+      <c r="A51" s="4"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
+      <c r="A52" s="4"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="5"/>
+      <c r="A53" s="4"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
+      <c r="A54" s="4"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
+      <c r="A55" s="4"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="5"/>
+      <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="5"/>
+      <c r="A57" s="4"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="5"/>
+      <c r="A58" s="4"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="5"/>
+      <c r="A59" s="4"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="5"/>
+      <c r="A60" s="4"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="5"/>
+      <c r="A61" s="4"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="5"/>
+      <c r="A62" s="4"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
+      <c r="A63" s="4"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5"/>
+      <c r="A64" s="4"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="5"/>
+      <c r="A65" s="4"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="5"/>
+      <c r="A66" s="4"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="5"/>
+      <c r="A67" s="4"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="5"/>
+      <c r="A68" s="4"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
+      <c r="A69" s="4"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="5"/>
+      <c r="A70" s="4"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="5"/>
+      <c r="A71" s="4"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5"/>
+      <c r="A72" s="4"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="5"/>
+      <c r="A73" s="4"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
+      <c r="A74" s="4"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
+      <c r="A75" s="4"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="5"/>
+      <c r="A76" s="4"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
+      <c r="A77" s="4"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="5"/>
+      <c r="A78" s="4"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="5"/>
+      <c r="A79" s="4"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="5"/>
+      <c r="A80" s="4"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="5"/>
+      <c r="A81" s="4"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="5"/>
+      <c r="A82" s="4"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="5"/>
+      <c r="A83" s="4"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="5"/>
+      <c r="A84" s="4"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="5"/>
+      <c r="A85" s="4"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="5"/>
+      <c r="A86" s="4"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="5"/>
+      <c r="A87" s="4"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="5"/>
+      <c r="A88" s="4"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="5"/>
+      <c r="A89" s="4"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="5"/>
+      <c r="A90" s="4"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="5"/>
+      <c r="A91" s="4"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="5"/>
+      <c r="A92" s="4"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="5"/>
+      <c r="A93" s="4"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="5"/>
+      <c r="A94" s="4"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="5"/>
+      <c r="A95" s="4"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="5"/>
+      <c r="A96" s="4"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="5"/>
+      <c r="A97" s="4"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="5"/>
+      <c r="A98" s="4"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="5"/>
+      <c r="A99" s="4"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="5"/>
+      <c r="A100" s="4"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="5"/>
+      <c r="A101" s="4"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="5"/>
+      <c r="A102" s="4"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="5"/>
+      <c r="A103" s="4"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="5"/>
+      <c r="A104" s="4"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="5"/>
+      <c r="A105" s="4"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="5"/>
+      <c r="A106" s="4"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="5"/>
+      <c r="A107" s="4"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="5"/>
+      <c r="A108" s="4"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="5"/>
+      <c r="A109" s="4"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="5"/>
+      <c r="A110" s="4"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="5"/>
+      <c r="A111" s="4"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="5"/>
+      <c r="A112" s="4"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="5"/>
+      <c r="A113" s="4"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="5"/>
+      <c r="A114" s="4"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="5"/>
+      <c r="A115" s="4"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="5"/>
+      <c r="A116" s="4"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="5"/>
+      <c r="A117" s="4"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="5"/>
+      <c r="A118" s="4"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="5"/>
+      <c r="A119" s="4"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="5"/>
+      <c r="A120" s="4"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="5"/>
+      <c r="A121" s="4"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="5"/>
+      <c r="A122" s="4"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="5"/>
+      <c r="A123" s="4"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="5"/>
+      <c r="A124" s="4"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="5"/>
+      <c r="A125" s="4"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="5"/>
+      <c r="A126" s="4"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="5"/>
+      <c r="A127" s="4"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="5"/>
+      <c r="A128" s="4"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="5"/>
+      <c r="A129" s="4"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="5"/>
+      <c r="A130" s="4"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="5"/>
+      <c r="A131" s="4"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="5"/>
+      <c r="A132" s="4"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="5"/>
+      <c r="A133" s="4"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="5"/>
+      <c r="A134" s="4"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="5"/>
+      <c r="A135" s="4"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="5"/>
+      <c r="A136" s="4"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="5"/>
+      <c r="A137" s="4"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="5"/>
+      <c r="A138" s="4"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="5"/>
+      <c r="A139" s="4"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="5"/>
+      <c r="A140" s="4"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="5"/>
+      <c r="A141" s="4"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="5"/>
+      <c r="A142" s="4"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="5"/>
+      <c r="A143" s="4"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="5"/>
+      <c r="A144" s="4"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="5"/>
+      <c r="A145" s="4"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="5"/>
+      <c r="A146" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="F1:AL1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
+  <mergeCells count="20">
+    <mergeCell ref="BK2:BM2"/>
+    <mergeCell ref="BN2:BP2"/>
+    <mergeCell ref="BQ2:BS2"/>
+    <mergeCell ref="AG2:AO2"/>
+    <mergeCell ref="AP2:AX2"/>
+    <mergeCell ref="AY2:BG2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
+    <mergeCell ref="BH2:BJ2"/>
+    <mergeCell ref="F1:BJ1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:AF2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
@@ -1339,5 +3095,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ScoreBoard.xlsx
+++ b/ScoreBoard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_code\verilog_and_systemverilog\ALU_32bit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84FEB66-78AC-45F4-B0B8-20DF251D7E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8057B4A8-B1B9-4E2C-8F0E-BC4DF7E4C3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{85341304-CAE7-440C-9E00-4B9CC2DEDFB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="93">
   <si>
     <t>STT</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>10000000000000000000000000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -446,20 +449,33 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -471,31 +487,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,69 +881,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F219C246-CF83-4C53-871F-7F4FA27B0BCB}">
   <dimension ref="A1:BS146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="8.88671875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="51.88671875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="9"/>
-    <col min="5" max="5" width="54" style="16" customWidth="1"/>
-    <col min="6" max="6" width="54.6640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="51.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="54.44140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="50.44140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="14" style="23" customWidth="1"/>
-    <col min="12" max="12" width="54.44140625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="49.88671875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="23" customWidth="1"/>
-    <col min="15" max="15" width="54.21875" style="14" customWidth="1"/>
-    <col min="16" max="16" width="50.109375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" style="23" customWidth="1"/>
-    <col min="18" max="18" width="53.5546875" style="14" customWidth="1"/>
-    <col min="19" max="19" width="47.6640625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="13.77734375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="51.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="54" style="9" customWidth="1"/>
+    <col min="6" max="6" width="54.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="51.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="54.44140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="50.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="14" customWidth="1"/>
+    <col min="12" max="12" width="54.44140625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="49.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="14" customWidth="1"/>
+    <col min="15" max="15" width="54.21875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="50.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="14" customWidth="1"/>
+    <col min="18" max="18" width="53.5546875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="47.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.77734375" style="14" customWidth="1"/>
     <col min="21" max="21" width="54.44140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="52.5546875" style="1" customWidth="1"/>
     <col min="23" max="23" width="15.5546875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="57.88671875" style="14" customWidth="1"/>
-    <col min="25" max="25" width="60.21875" style="7" customWidth="1"/>
-    <col min="26" max="31" width="17.44140625" style="7" customWidth="1"/>
-    <col min="32" max="32" width="25.5546875" style="21" customWidth="1"/>
-    <col min="33" max="33" width="55.109375" style="14" customWidth="1"/>
-    <col min="34" max="34" width="48.33203125" style="7" customWidth="1"/>
-    <col min="35" max="35" width="16.33203125" style="7" customWidth="1"/>
-    <col min="36" max="36" width="16.77734375" style="7" customWidth="1"/>
-    <col min="37" max="37" width="15.109375" style="7" customWidth="1"/>
-    <col min="38" max="38" width="18.5546875" style="7" customWidth="1"/>
-    <col min="39" max="39" width="16" style="7" customWidth="1"/>
-    <col min="40" max="40" width="21.88671875" style="7" customWidth="1"/>
-    <col min="41" max="41" width="15" style="16" customWidth="1"/>
-    <col min="42" max="42" width="51.109375" style="14" customWidth="1"/>
-    <col min="43" max="43" width="48.6640625" style="7" customWidth="1"/>
-    <col min="44" max="44" width="20.33203125" style="7" customWidth="1"/>
-    <col min="45" max="45" width="16" style="7" customWidth="1"/>
-    <col min="46" max="46" width="17.77734375" style="7" customWidth="1"/>
-    <col min="47" max="47" width="17.44140625" style="7" customWidth="1"/>
-    <col min="48" max="48" width="14.5546875" style="7" customWidth="1"/>
-    <col min="49" max="49" width="18.109375" style="7" customWidth="1"/>
-    <col min="50" max="50" width="13.109375" style="16" customWidth="1"/>
-    <col min="51" max="51" width="62.6640625" style="14" customWidth="1"/>
-    <col min="52" max="52" width="41.109375" style="7" customWidth="1"/>
-    <col min="53" max="53" width="16.33203125" style="7" customWidth="1"/>
-    <col min="54" max="54" width="43.5546875" style="7" customWidth="1"/>
-    <col min="55" max="55" width="17.44140625" style="7" customWidth="1"/>
-    <col min="56" max="56" width="18.44140625" style="7" customWidth="1"/>
-    <col min="57" max="57" width="17.44140625" style="7" customWidth="1"/>
-    <col min="58" max="58" width="19.44140625" style="7" customWidth="1"/>
-    <col min="59" max="59" width="29.77734375" style="16" customWidth="1"/>
-    <col min="60" max="60" width="59.109375" style="14" customWidth="1"/>
-    <col min="61" max="61" width="52.77734375" style="7" customWidth="1"/>
-    <col min="62" max="62" width="15.109375" style="16" customWidth="1"/>
+    <col min="24" max="24" width="57.88671875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="60.21875" style="1" customWidth="1"/>
+    <col min="26" max="31" width="17.44140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="25.5546875" style="12" customWidth="1"/>
+    <col min="33" max="33" width="55.109375" style="8" customWidth="1"/>
+    <col min="34" max="34" width="48.33203125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="16.33203125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="16.77734375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="15.109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="18.5546875" style="1" customWidth="1"/>
+    <col min="39" max="39" width="16" style="1" customWidth="1"/>
+    <col min="40" max="40" width="21.88671875" style="1" customWidth="1"/>
+    <col min="41" max="41" width="15" style="9" customWidth="1"/>
+    <col min="42" max="42" width="51.109375" style="8" customWidth="1"/>
+    <col min="43" max="43" width="48.6640625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="20.33203125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="16" style="1" customWidth="1"/>
+    <col min="46" max="46" width="17.77734375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="17.44140625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="14.5546875" style="1" customWidth="1"/>
+    <col min="49" max="49" width="18.109375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="13.109375" style="9" customWidth="1"/>
+    <col min="51" max="51" width="62.6640625" style="8" customWidth="1"/>
+    <col min="52" max="52" width="41.109375" style="1" customWidth="1"/>
+    <col min="53" max="53" width="16.33203125" style="1" customWidth="1"/>
+    <col min="54" max="54" width="43.5546875" style="1" customWidth="1"/>
+    <col min="55" max="55" width="17.44140625" style="1" customWidth="1"/>
+    <col min="56" max="56" width="18.44140625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="17.44140625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="19.44140625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="29.77734375" style="9" customWidth="1"/>
+    <col min="60" max="60" width="59.109375" style="8" customWidth="1"/>
+    <col min="61" max="61" width="52.77734375" style="1" customWidth="1"/>
+    <col min="62" max="62" width="15.109375" style="9" customWidth="1"/>
     <col min="63" max="63" width="13.77734375" style="1" customWidth="1"/>
     <col min="64" max="64" width="8.88671875" style="1"/>
     <col min="65" max="65" width="14" style="1" customWidth="1"/>
@@ -958,198 +957,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="18"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="18"/>
-      <c r="BG1" s="18"/>
-      <c r="BH1" s="18"/>
-      <c r="BI1" s="18"/>
-      <c r="BJ1" s="19"/>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="7"/>
-      <c r="BN1" s="7"/>
-      <c r="BO1" s="7"/>
-      <c r="BP1" s="7"/>
-      <c r="BQ1" s="7"/>
-      <c r="BR1" s="7"/>
-      <c r="BS1" s="7"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="20"/>
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="21"/>
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="10" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="10" t="s">
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="10" t="s">
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="10" t="s">
+      <c r="AQ2" s="17"/>
+      <c r="AR2" s="17"/>
+      <c r="AS2" s="17"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="13"/>
-      <c r="BH2" s="5" t="s">
+      <c r="AZ2" s="17"/>
+      <c r="BA2" s="17"/>
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="17"/>
+      <c r="BD2" s="17"/>
+      <c r="BE2" s="17"/>
+      <c r="BF2" s="17"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="6"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="6"/>
-      <c r="BS2" s="6"/>
+      <c r="BI2" s="19"/>
+      <c r="BJ2" s="19"/>
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
+      <c r="BP2" s="15"/>
+      <c r="BQ2" s="15"/>
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1188,13 +1178,13 @@
       <c r="T3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="V3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="X3" s="3" t="s">
@@ -1221,7 +1211,7 @@
       <c r="AE3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AF3" s="20" t="s">
+      <c r="AF3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="AG3" s="3" t="s">
@@ -1314,81 +1304,81 @@
       <c r="BJ3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="BK3" s="8" t="s">
+      <c r="BK3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="BL3" s="8"/>
-      <c r="BM3" s="8"/>
-      <c r="BN3" s="8"/>
-      <c r="BO3" s="8"/>
-      <c r="BP3" s="8"/>
-      <c r="BQ3" s="8"/>
-      <c r="BR3" s="8"/>
-      <c r="BS3" s="8"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="22" t="str">
+      <c r="H4" s="13" t="str">
         <f t="shared" ref="H4:H12" si="0">IF((F4 = G4), "T","F")</f>
         <v>T</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="21" t="str">
+      <c r="K4" s="12" t="str">
         <f>IF((I4 = J4), "T","F")</f>
         <v>T</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="21" t="str">
+      <c r="N4" s="12" t="str">
         <f>IF((L4 = M4), "T","F")</f>
         <v>T</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q4" s="21" t="str">
+      <c r="Q4" s="12" t="str">
         <f>IF((O4 = P4), "T","F")</f>
         <v>T</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="21" t="str">
+      <c r="T4" s="12" t="str">
         <f>IF((R4 = S4), "T","F")</f>
         <v>T</v>
       </c>
@@ -1398,205 +1388,196 @@
       <c r="V4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="W4" s="21" t="str">
+      <c r="W4" s="12" t="str">
         <f>IF((U4 = V4), "T","F")</f>
         <v>T</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="X4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AA4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF4" s="21" t="str">
+      <c r="AB4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF4" s="12" t="str">
         <f>IF(AND(Y4 = X4, Z4 = AA4,  AB4 =AC4, AD4 = AE4), "T", "F")</f>
         <v>T</v>
       </c>
-      <c r="AG4" s="14" t="s">
+      <c r="AG4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AH4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AI4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AK4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO4" s="21" t="str">
+      <c r="AK4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO4" s="12" t="str">
         <f>IF(AND(AH4 = AG4, AI4 = AJ4,  AK4 =AL4, AM4 = AN4), "T", "F")</f>
         <v>T</v>
       </c>
-      <c r="AP4" s="14" t="s">
+      <c r="AP4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AQ4" s="7" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AR4" s="7" t="s">
+      <c r="AR4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AS4" s="7" t="s">
+      <c r="AS4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AT4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AW4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX4" s="21" t="str">
+      <c r="AT4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX4" s="12" t="str">
         <f>IF(AND(AQ4 = AP4, AR4 = AS4,  AT4 =AU4, AV4 = AW4), "T", "F")</f>
         <v>T</v>
       </c>
-      <c r="AY4" s="14" t="s">
+      <c r="AY4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AZ4" s="7" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BA4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC4" s="7" t="s">
+      <c r="BA4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BD4" s="7" t="s">
+      <c r="BD4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BE4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BF4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG4" s="21" t="str">
+      <c r="BE4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG4" s="12" t="str">
         <f>IF(AND(AZ4 = AY4, BA4 = BB4,  BC4 =BD4, BE4 = BF4), "T", "F")</f>
         <v>T</v>
       </c>
-      <c r="BH4" s="7" t="s">
+      <c r="BH4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BI4" s="7" t="s">
+      <c r="BI4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ4" s="21" t="str">
+      <c r="BJ4" s="12" t="str">
         <f>IF((BH4 = BI4), "T","F")</f>
         <v>T</v>
       </c>
-      <c r="BK4" s="7"/>
-      <c r="BL4" s="7"/>
-      <c r="BM4" s="7"/>
-      <c r="BN4" s="7"/>
-      <c r="BO4" s="7"/>
-      <c r="BP4" s="7"/>
-      <c r="BQ4" s="7"/>
-      <c r="BR4" s="7"/>
-      <c r="BS4" s="7"/>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="22" t="str">
+      <c r="H5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="21" t="str">
+      <c r="K5" s="12" t="str">
         <f t="shared" ref="K5:K12" si="1">IF((I5 = J5), "T","F")</f>
         <v>T</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N5" s="21" t="str">
+      <c r="N5" s="12" t="str">
         <f t="shared" ref="N5:N12" si="2">IF((L5 = M5), "T","F")</f>
         <v>T</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="21" t="str">
+      <c r="Q5" s="12" t="str">
         <f t="shared" ref="Q5:Q12" si="3">IF((O5 = P5), "T","F")</f>
         <v>T</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="T5" s="21" t="str">
+      <c r="T5" s="12" t="str">
         <f t="shared" ref="T5:T12" si="4">IF((R5 = S5), "T","F")</f>
         <v>T</v>
       </c>
@@ -1606,395 +1587,377 @@
       <c r="V5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="W5" s="21" t="str">
+      <c r="W5" s="12" t="str">
         <f t="shared" ref="W5:W12" si="5">IF((U5 = V5), "T","F")</f>
         <v>T</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="X5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="Y5" s="7" t="s">
+      <c r="Y5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Z5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB5" s="7" t="s">
+      <c r="Z5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AC5" s="7" t="s">
+      <c r="AC5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF5" s="21" t="str">
+      <c r="AD5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF5" s="12" t="str">
         <f t="shared" ref="AF5:AF12" si="6">IF(AND(Y5 = X5, Z5 = AA5,  AB5 =AC5, AD5 = AE5), "T", "F")</f>
         <v>T</v>
       </c>
-      <c r="AG5" s="14" t="s">
+      <c r="AG5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AH5" s="7" t="s">
+      <c r="AH5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AI5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO5" s="21" t="str">
+      <c r="AI5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO5" s="12" t="str">
         <f t="shared" ref="AO5:AO12" si="7">IF(AND(AH5 = AG5, AI5 = AJ5,  AK5 =AL5, AM5 = AN5), "T", "F")</f>
         <v>T</v>
       </c>
-      <c r="AP5" s="14" t="s">
+      <c r="AP5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AQ5" s="7" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AR5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AW5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX5" s="21" t="str">
+      <c r="AR5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX5" s="12" t="str">
         <f t="shared" ref="AX5:AX12" si="8">IF(AND(AQ5 = AP5, AR5 = AS5,  AT5 =AU5, AV5 = AW5), "T", "F")</f>
         <v>T</v>
       </c>
-      <c r="AY5" s="14" t="s">
+      <c r="AY5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="BA5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG5" s="21" t="str">
+      <c r="BA5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG5" s="12" t="str">
         <f t="shared" ref="BG5:BG12" si="9">IF(AND(AZ5 = AY5, BA5 = BB5,  BC5 =BD5, BE5 = BF5), "T", "F")</f>
         <v>F</v>
       </c>
-      <c r="BH5" s="14" t="s">
+      <c r="BH5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="BJ5" s="21" t="str">
+      <c r="BJ5" s="12" t="str">
         <f t="shared" ref="BJ5:BJ12" si="10">IF((BH5 = BI5), "T","F")</f>
         <v>F</v>
       </c>
-      <c r="BK5" s="7"/>
-      <c r="BL5" s="7"/>
-      <c r="BM5" s="7"/>
-      <c r="BN5" s="7"/>
-      <c r="BO5" s="7"/>
-      <c r="BP5" s="7"/>
-      <c r="BQ5" s="7"/>
-      <c r="BR5" s="7"/>
-      <c r="BS5" s="7"/>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="22" t="str">
+      <c r="H6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="21" t="str">
+      <c r="K6" s="12" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N6" s="21" t="str">
+      <c r="N6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="O6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" s="21" t="str">
+      <c r="Q6" s="12" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="21" t="str">
+      <c r="T6" s="12" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W6" s="21" t="str">
+      <c r="W6" s="12" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="X6" s="14" t="s">
+      <c r="X6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB6" s="7" t="s">
+      <c r="Z6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AD6" s="7" t="s">
+      <c r="AD6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AF6" s="21" t="str">
+      <c r="AF6" s="12" t="str">
         <f t="shared" si="6"/>
         <v>F</v>
       </c>
-      <c r="AG6" s="14" t="s">
+      <c r="AG6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AI6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO6" s="21" t="str">
+      <c r="AI6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO6" s="12" t="str">
         <f t="shared" si="7"/>
         <v>F</v>
       </c>
-      <c r="AP6" s="14" t="s">
+      <c r="AP6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AR6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT6" s="7" t="s">
+      <c r="AR6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AV6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AW6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX6" s="21" t="str">
+      <c r="AV6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX6" s="12" t="str">
         <f t="shared" si="8"/>
         <v>F</v>
       </c>
-      <c r="AY6" s="14" t="s">
+      <c r="AY6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BA6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC6" s="7" t="s">
+      <c r="BA6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BE6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG6" s="21" t="str">
+      <c r="BE6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG6" s="12" t="str">
         <f t="shared" si="9"/>
         <v>F</v>
       </c>
-      <c r="BH6" s="14" t="s">
+      <c r="BH6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="BJ6" s="21" t="str">
+      <c r="BJ6" s="12" t="str">
         <f t="shared" si="10"/>
         <v>F</v>
       </c>
-      <c r="BK6" s="7"/>
-      <c r="BL6" s="7"/>
-      <c r="BM6" s="7"/>
-      <c r="BN6" s="7"/>
-      <c r="BO6" s="7"/>
-      <c r="BP6" s="7"/>
-      <c r="BQ6" s="7"/>
-      <c r="BR6" s="7"/>
-      <c r="BS6" s="7"/>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="22" t="str">
+      <c r="H7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="21" t="str">
+      <c r="K7" s="12" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="21" t="str">
+      <c r="N7" s="12" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="21" t="str">
+      <c r="Q7" s="12" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="21" t="str">
+      <c r="T7" s="12" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="W7" s="21" t="str">
+      <c r="W7" s="12" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="X7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Z7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF7" s="21" t="str">
+      <c r="Z7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF7" s="12" t="str">
         <f t="shared" si="6"/>
         <v>F</v>
       </c>
-      <c r="AG7" s="14" t="s">
+      <c r="AG7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AI7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO7" s="21" t="str">
+      <c r="AI7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO7" s="12" t="str">
         <f t="shared" si="7"/>
         <v>F</v>
       </c>
-      <c r="AP7" s="14" t="s">
+      <c r="AP7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="7" t="s">
+      <c r="AR7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AT7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX7" s="21" t="str">
+      <c r="AT7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX7" s="12" t="str">
         <f t="shared" si="8"/>
         <v>F</v>
       </c>
-      <c r="AY7" s="14" t="s">
+      <c r="AY7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="BA7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC7" s="7" t="s">
+      <c r="BA7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BE7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG7" s="21" t="str">
+      <c r="BE7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG7" s="12" t="str">
         <f t="shared" si="9"/>
         <v>F</v>
       </c>
-      <c r="BH7" s="14" t="s">
+      <c r="BH7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="BJ7" s="21" t="str">
+      <c r="BJ7" s="12" t="str">
         <f t="shared" si="10"/>
         <v>F</v>
       </c>
@@ -2003,128 +1966,128 @@
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="22" t="str">
+      <c r="H8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="21" t="str">
+      <c r="K8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="21" t="str">
+      <c r="N8" s="12" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="O8" s="14" t="s">
+      <c r="O8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="21" t="str">
+      <c r="Q8" s="12" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="R8" s="14" t="s">
+      <c r="R8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="T8" s="21" t="str">
+      <c r="T8" s="12" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="W8" s="21" t="str">
+      <c r="W8" s="12" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="X8" s="14" t="s">
+      <c r="X8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Z8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF8" s="21" t="str">
+      <c r="Z8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF8" s="12" t="str">
         <f t="shared" si="6"/>
         <v>F</v>
       </c>
-      <c r="AG8" s="14" t="s">
+      <c r="AG8" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO8" s="21" t="str">
+      <c r="AI8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO8" s="12" t="str">
         <f t="shared" si="7"/>
         <v>F</v>
       </c>
-      <c r="AP8" s="14" t="s">
+      <c r="AP8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AR8" s="7" t="s">
+      <c r="AR8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AT8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX8" s="21" t="str">
+      <c r="AT8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX8" s="12" t="str">
         <f t="shared" si="8"/>
         <v>F</v>
       </c>
-      <c r="AY8" s="14" t="s">
+      <c r="AY8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="BA8" s="7" t="s">
+      <c r="BA8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BC8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG8" s="21" t="str">
+      <c r="BC8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG8" s="12" t="str">
         <f t="shared" si="9"/>
         <v>F</v>
       </c>
-      <c r="BH8" s="14" t="s">
+      <c r="BH8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="BJ8" s="21" t="str">
+      <c r="BJ8" s="12" t="str">
         <f t="shared" si="10"/>
         <v>F</v>
       </c>
@@ -2133,128 +2096,128 @@
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="22" t="str">
+      <c r="H9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="21" t="str">
+      <c r="K9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="21" t="str">
+      <c r="N9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="O9" s="14" t="s">
+      <c r="O9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Q9" s="21" t="str">
+      <c r="Q9" s="12" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="T9" s="21" t="str">
+      <c r="T9" s="12" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="W9" s="21" t="str">
+      <c r="W9" s="12" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="X9" s="14" t="s">
+      <c r="X9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Z9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF9" s="21" t="str">
+      <c r="Z9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF9" s="12" t="str">
         <f t="shared" si="6"/>
         <v>F</v>
       </c>
-      <c r="AG9" s="14" t="s">
+      <c r="AG9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AI9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO9" s="21" t="str">
+      <c r="AI9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO9" s="12" t="str">
         <f t="shared" si="7"/>
         <v>F</v>
       </c>
-      <c r="AP9" s="14" t="s">
+      <c r="AP9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AR9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX9" s="21" t="str">
+      <c r="AR9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX9" s="12" t="str">
         <f t="shared" si="8"/>
         <v>F</v>
       </c>
-      <c r="AY9" s="14" t="s">
+      <c r="AY9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="BA9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG9" s="21" t="str">
+      <c r="BA9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG9" s="12" t="str">
         <f t="shared" si="9"/>
         <v>F</v>
       </c>
-      <c r="BH9" s="14" t="s">
+      <c r="BH9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BJ9" s="21" t="str">
+      <c r="BJ9" s="12" t="str">
         <f t="shared" si="10"/>
         <v>F</v>
       </c>
@@ -2263,128 +2226,128 @@
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="22" t="str">
+      <c r="H10" s="13" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="21" t="str">
+      <c r="K10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="21" t="str">
+      <c r="N10" s="12" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Q10" s="21" t="str">
+      <c r="Q10" s="12" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="R10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="T10" s="21" t="str">
+      <c r="T10" s="12" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="W10" s="21" t="str">
+      <c r="W10" s="12" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="X10" s="14" t="s">
+      <c r="X10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="Z10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF10" s="21" t="str">
+      <c r="Z10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF10" s="12" t="str">
         <f t="shared" si="6"/>
         <v>F</v>
       </c>
-      <c r="AG10" s="14" t="s">
+      <c r="AG10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AI10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO10" s="21" t="str">
+      <c r="AI10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO10" s="12" t="str">
         <f t="shared" si="7"/>
         <v>F</v>
       </c>
-      <c r="AP10" s="14" t="s">
+      <c r="AP10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AR10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX10" s="21" t="str">
+      <c r="AR10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX10" s="12" t="str">
         <f t="shared" si="8"/>
         <v>F</v>
       </c>
-      <c r="AY10" s="14" t="s">
+      <c r="AY10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="BA10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG10" s="21" t="str">
+      <c r="BA10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG10" s="12" t="str">
         <f t="shared" si="9"/>
         <v>F</v>
       </c>
-      <c r="BH10" s="14" t="s">
+      <c r="BH10" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BJ10" s="21" t="str">
+      <c r="BJ10" s="12" t="str">
         <f t="shared" si="10"/>
         <v>F</v>
       </c>
@@ -2393,128 +2356,128 @@
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="22" t="str">
+      <c r="H11" s="13" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="K11" s="21" t="str">
+      <c r="K11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="N11" s="21" t="str">
+      <c r="N11" s="12" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="O11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Q11" s="21" t="str">
+      <c r="Q11" s="12" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="R11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="T11" s="21" t="str">
+      <c r="T11" s="12" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="W11" s="21" t="str">
+      <c r="W11" s="12" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="X11" s="14" t="s">
+      <c r="X11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="Z11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF11" s="21" t="str">
+      <c r="Z11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF11" s="12" t="str">
         <f t="shared" si="6"/>
         <v>F</v>
       </c>
-      <c r="AG11" s="14" t="s">
+      <c r="AG11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AI11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO11" s="21" t="str">
+      <c r="AI11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO11" s="12" t="str">
         <f t="shared" si="7"/>
         <v>F</v>
       </c>
-      <c r="AP11" s="14" t="s">
+      <c r="AP11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AR11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX11" s="21" t="str">
+      <c r="AR11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX11" s="12" t="str">
         <f t="shared" si="8"/>
         <v>F</v>
       </c>
-      <c r="AY11" s="14" t="s">
+      <c r="AY11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="BA11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG11" s="21" t="str">
+      <c r="BA11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG11" s="12" t="str">
         <f t="shared" si="9"/>
         <v>F</v>
       </c>
-      <c r="BH11" s="14" t="s">
+      <c r="BH11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="BJ11" s="21" t="str">
+      <c r="BJ11" s="12" t="str">
         <f t="shared" si="10"/>
         <v>F</v>
       </c>
@@ -2523,128 +2486,128 @@
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="22" t="str">
+      <c r="H12" s="13" t="str">
         <f t="shared" si="0"/>
         <v>F</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="21" t="str">
+      <c r="K12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>F</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="N12" s="21" t="str">
+      <c r="N12" s="12" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Q12" s="21" t="str">
+      <c r="Q12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="R12" s="14" t="s">
+      <c r="R12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="T12" s="21" t="str">
+      <c r="T12" s="12" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="W12" s="21" t="str">
+      <c r="W12" s="12" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="X12" s="14" t="s">
+      <c r="X12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="Z12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF12" s="21" t="str">
+      <c r="Z12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF12" s="12" t="str">
         <f t="shared" si="6"/>
         <v>F</v>
       </c>
-      <c r="AG12" s="14" t="s">
+      <c r="AG12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AI12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO12" s="21" t="str">
+      <c r="AI12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO12" s="12" t="str">
         <f t="shared" si="7"/>
         <v>F</v>
       </c>
-      <c r="AP12" s="14" t="s">
+      <c r="AP12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AR12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX12" s="21" t="str">
+      <c r="AR12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX12" s="12" t="str">
         <f t="shared" si="8"/>
         <v>F</v>
       </c>
-      <c r="AY12" s="14" t="s">
+      <c r="AY12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="BA12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BE12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="BG12" s="21" t="str">
+      <c r="BA12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG12" s="12" t="str">
         <f t="shared" si="9"/>
         <v>F</v>
       </c>
-      <c r="BH12" s="14" t="s">
+      <c r="BH12" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="BJ12" s="21" t="str">
+      <c r="BJ12" s="12" t="str">
         <f t="shared" si="10"/>
         <v>F</v>
       </c>
@@ -2653,7 +2616,7 @@
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="21"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -2670,62 +2633,65 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="E20" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
@@ -3072,18 +3038,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="BK2:BM2"/>
-    <mergeCell ref="BN2:BP2"/>
-    <mergeCell ref="BQ2:BS2"/>
-    <mergeCell ref="AG2:AO2"/>
-    <mergeCell ref="AP2:AX2"/>
-    <mergeCell ref="AY2:BG2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="BH2:BJ2"/>
     <mergeCell ref="F1:BJ1"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -3092,6 +3046,18 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="BK2:BM2"/>
+    <mergeCell ref="BN2:BP2"/>
+    <mergeCell ref="BQ2:BS2"/>
+    <mergeCell ref="AG2:AO2"/>
+    <mergeCell ref="AP2:AX2"/>
+    <mergeCell ref="AY2:BG2"/>
+    <mergeCell ref="BH2:BJ2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
